--- a/MethodenKatalogKC.xlsx
+++ b/MethodenKatalogKC.xlsx
@@ -15,7 +15,7 @@
     <sheet name="MethodenKatalogKC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MethodenKatalogKC!$A$1:$C$296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MethodenKatalogKC!$A$1:$C$299</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="243">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>VLDL-Cholesterin</t>
+  </si>
+  <si>
+    <t>CK-MB</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,10 +1813,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67">
-        <v>14579</v>
+        <v>14324</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
@@ -1821,10 +1824,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68">
-        <v>14606</v>
+        <v>2292</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
@@ -1832,10 +1835,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B69">
-        <v>14845</v>
+        <v>14579</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
@@ -1843,10 +1846,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B70">
-        <v>14846</v>
+        <v>14606</v>
       </c>
       <c r="C70" t="s">
         <v>80</v>
@@ -1854,10 +1857,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B71">
-        <v>14597</v>
+        <v>14845</v>
       </c>
       <c r="C71" t="s">
         <v>80</v>
@@ -1865,32 +1868,32 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B72">
-        <v>14607</v>
+        <v>14846</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B73">
-        <v>14574</v>
+        <v>14597</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B74">
-        <v>15351</v>
+        <v>14607</v>
       </c>
       <c r="C74" t="s">
         <v>40</v>
@@ -1898,21 +1901,21 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>22332</v>
+        <v>14574</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="B76">
-        <v>13939</v>
+        <v>15351</v>
       </c>
       <c r="C76" t="s">
         <v>40</v>
@@ -1920,10 +1923,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="B77">
-        <v>15071</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
         <v>40</v>
@@ -1931,21 +1934,21 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="B78">
-        <v>42473</v>
+        <v>22332</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="B79">
-        <v>12283</v>
+        <v>13939</v>
       </c>
       <c r="C79" t="s">
         <v>40</v>
@@ -1953,10 +1956,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B80">
-        <v>37887</v>
+        <v>15071</v>
       </c>
       <c r="C80" t="s">
         <v>40</v>
@@ -1964,10 +1967,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B81">
-        <v>29831</v>
+        <v>42473</v>
       </c>
       <c r="C81" t="s">
         <v>40</v>
@@ -1975,10 +1978,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="B82">
-        <v>18408</v>
+        <v>12283</v>
       </c>
       <c r="C82" t="s">
         <v>40</v>
@@ -1986,10 +1989,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="B83">
-        <v>38765</v>
+        <v>37887</v>
       </c>
       <c r="C83" t="s">
         <v>40</v>
@@ -1997,43 +2000,43 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84">
-        <v>14608</v>
+        <v>29831</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B85">
-        <v>14581</v>
+        <v>18408</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B86">
-        <v>10520</v>
+        <v>38765</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="B87">
-        <v>14609</v>
+        <v>14608</v>
       </c>
       <c r="C87" t="s">
         <v>80</v>
@@ -2044,7 +2047,7 @@
         <v>92</v>
       </c>
       <c r="B88">
-        <v>14610</v>
+        <v>14581</v>
       </c>
       <c r="C88" t="s">
         <v>80</v>
@@ -2052,10 +2055,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>14580</v>
+        <v>10520</v>
       </c>
       <c r="C89" t="s">
         <v>80</v>
@@ -2063,65 +2066,65 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B90">
-        <v>11542</v>
+        <v>14609</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>12074</v>
+        <v>14610</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>36510</v>
+        <v>14580</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B93">
-        <v>15357</v>
+        <v>11542</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="B94">
-        <v>37820</v>
+        <v>12074</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B95">
-        <v>43986</v>
+        <v>36510</v>
       </c>
       <c r="C95" t="s">
         <v>40</v>
@@ -2129,10 +2132,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B96">
-        <v>21504</v>
+        <v>15357</v>
       </c>
       <c r="C96" t="s">
         <v>40</v>
@@ -2140,98 +2143,98 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B97">
-        <v>22236</v>
+        <v>37820</v>
       </c>
       <c r="C97" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="B98">
-        <v>14582</v>
+        <v>43986</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B99">
-        <v>10592</v>
+        <v>21504</v>
       </c>
       <c r="C99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="B100">
-        <v>10591</v>
+        <v>22236</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B101">
-        <v>10593</v>
+        <v>14582</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B102">
-        <v>14813</v>
+        <v>10592</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="B103">
-        <v>22249</v>
+        <v>10591</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B104">
-        <v>10054</v>
+        <v>10593</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B105">
-        <v>37989</v>
+        <v>14813</v>
       </c>
       <c r="C105" t="s">
         <v>40</v>
@@ -2239,43 +2242,43 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="B106">
-        <v>42672</v>
+        <v>22249</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="B107">
-        <v>43709</v>
+        <v>10054</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B108">
-        <v>217</v>
+        <v>37989</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="B109">
-        <v>254</v>
+        <v>42672</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
@@ -2283,153 +2286,153 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B110">
-        <v>37274</v>
+        <v>43709</v>
       </c>
       <c r="C110" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="B111">
-        <v>21912</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="B112">
-        <v>17950</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="B113">
-        <v>10865</v>
+        <v>37274</v>
       </c>
       <c r="C113" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B114">
-        <v>43106</v>
+        <v>21912</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="B115">
-        <v>43106</v>
+        <v>17950</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="B116">
-        <v>22174</v>
+        <v>10865</v>
       </c>
       <c r="C116" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="B117">
-        <v>18668</v>
+        <v>43106</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="B118">
-        <v>18667</v>
+        <v>43106</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="B119">
-        <v>221</v>
+        <v>22174</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>42017</v>
+        <v>18668</v>
       </c>
       <c r="C120" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>13941</v>
+        <v>18667</v>
       </c>
       <c r="C121" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="B122">
-        <v>33690</v>
+        <v>221</v>
       </c>
       <c r="C122" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="B123">
-        <v>14805</v>
+        <v>42017</v>
       </c>
       <c r="C123" t="s">
         <v>80</v>
@@ -2437,21 +2440,21 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="B124">
-        <v>37688</v>
+        <v>13941</v>
       </c>
       <c r="C124" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="B125">
-        <v>22125</v>
+        <v>33690</v>
       </c>
       <c r="C125" t="s">
         <v>80</v>
@@ -2459,10 +2462,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B126">
-        <v>14535</v>
+        <v>14805</v>
       </c>
       <c r="C126" t="s">
         <v>80</v>
@@ -2470,10 +2473,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="B127">
-        <v>15350</v>
+        <v>37688</v>
       </c>
       <c r="C127" t="s">
         <v>80</v>
@@ -2481,10 +2484,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>14584</v>
+        <v>22125</v>
       </c>
       <c r="C128" t="s">
         <v>80</v>
@@ -2492,32 +2495,32 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="B129">
-        <v>30654</v>
+        <v>14535</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="B130">
-        <v>43957</v>
+        <v>15350</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B131">
-        <v>14777</v>
+        <v>14584</v>
       </c>
       <c r="C131" t="s">
         <v>80</v>
@@ -2525,32 +2528,32 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="B132">
-        <v>14585</v>
+        <v>30654</v>
       </c>
       <c r="C132" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="B133">
-        <v>14586</v>
+        <v>43957</v>
       </c>
       <c r="C133" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B134">
-        <v>32606</v>
+        <v>14777</v>
       </c>
       <c r="C134" t="s">
         <v>80</v>
@@ -2558,98 +2561,98 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B135">
-        <v>256</v>
+        <v>14585</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="B136">
-        <v>18491</v>
+        <v>14586</v>
       </c>
       <c r="C136" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B137">
-        <v>36716</v>
+        <v>32606</v>
       </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="B138">
-        <v>37266</v>
+        <v>256</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="B139">
-        <v>2303</v>
+        <v>18491</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="B140">
-        <v>10180</v>
+        <v>36716</v>
       </c>
       <c r="C140" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="B141">
-        <v>10180</v>
+        <v>37266</v>
       </c>
       <c r="C141" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B142">
-        <v>235</v>
+        <v>2303</v>
       </c>
       <c r="C142" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B143">
-        <v>85</v>
+        <v>10180</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -2657,10 +2660,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="B144">
-        <v>33628</v>
+        <v>10180</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -2668,10 +2671,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B145">
-        <v>10179</v>
+        <v>235</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -2679,10 +2682,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B146">
-        <v>2252</v>
+        <v>85</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -2690,10 +2693,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="B147">
-        <v>10179</v>
+        <v>33628</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -2701,10 +2704,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B148">
-        <v>103</v>
+        <v>10179</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -2712,10 +2715,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B149">
-        <v>66</v>
+        <v>2252</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -2723,10 +2726,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B150">
-        <v>10181</v>
+        <v>10179</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -2734,10 +2737,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B151">
-        <v>10181</v>
+        <v>103</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -2745,10 +2748,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B152">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -2756,10 +2759,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B153">
-        <v>87</v>
+        <v>10181</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
@@ -2767,43 +2770,43 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B154">
-        <v>12722</v>
+        <v>10181</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B155">
-        <v>13115</v>
+        <v>236</v>
       </c>
       <c r="C155" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="B156">
-        <v>37693</v>
+        <v>87</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="B157">
-        <v>43361</v>
+        <v>12722</v>
       </c>
       <c r="C157" t="s">
         <v>38</v>
@@ -2811,43 +2814,43 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="B158">
-        <v>25297</v>
+        <v>13115</v>
       </c>
       <c r="C158" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B159">
-        <v>25298</v>
+        <v>37693</v>
       </c>
       <c r="C159" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="B160">
-        <v>26828</v>
+        <v>43361</v>
       </c>
       <c r="C160" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B161">
-        <v>26831</v>
+        <v>25297</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
@@ -2855,109 +2858,109 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="B162">
-        <v>43931</v>
+        <v>25298</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B163">
-        <v>13922</v>
+        <v>26828</v>
       </c>
       <c r="C163" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="B164">
-        <v>2130</v>
+        <v>26831</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="B165">
-        <v>14588</v>
+        <v>43931</v>
       </c>
       <c r="C165" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B166">
-        <v>14307</v>
+        <v>13922</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B167">
-        <v>14620</v>
+        <v>2130</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="B168">
-        <v>27233</v>
+        <v>14588</v>
       </c>
       <c r="C168" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="B169">
-        <v>34421</v>
+        <v>14307</v>
       </c>
       <c r="C169" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="B170">
-        <v>27234</v>
+        <v>14620</v>
       </c>
       <c r="C170" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B171">
-        <v>34422</v>
+        <v>27233</v>
       </c>
       <c r="C171" t="s">
         <v>38</v>
@@ -2965,10 +2968,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B172">
-        <v>27235</v>
+        <v>34421</v>
       </c>
       <c r="C172" t="s">
         <v>38</v>
@@ -2976,10 +2979,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B173">
-        <v>34423</v>
+        <v>27234</v>
       </c>
       <c r="C173" t="s">
         <v>38</v>
@@ -2987,10 +2990,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B174">
-        <v>25836</v>
+        <v>34422</v>
       </c>
       <c r="C174" t="s">
         <v>38</v>
@@ -2998,10 +3001,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B175">
-        <v>34420</v>
+        <v>27235</v>
       </c>
       <c r="C175" t="s">
         <v>38</v>
@@ -3009,54 +3012,54 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B176">
-        <v>2242</v>
+        <v>34423</v>
       </c>
       <c r="C176" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="B177">
-        <v>195</v>
+        <v>25836</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="B178">
-        <v>33979</v>
+        <v>34420</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="B179">
-        <v>10744</v>
+        <v>2242</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B180">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="C180" t="s">
         <v>10</v>
@@ -3064,10 +3067,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="B181">
-        <v>193</v>
+        <v>33979</v>
       </c>
       <c r="C181" t="s">
         <v>10</v>
@@ -3075,10 +3078,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B182">
-        <v>194</v>
+        <v>10744</v>
       </c>
       <c r="C182" t="s">
         <v>10</v>
@@ -3086,10 +3089,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B183">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="C183" t="s">
         <v>10</v>
@@ -3097,10 +3100,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B184">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C184" t="s">
         <v>10</v>
@@ -3108,98 +3111,98 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B185">
-        <v>4065</v>
+        <v>194</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="B186">
-        <v>42673</v>
+        <v>215</v>
       </c>
       <c r="C186" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="B187">
-        <v>42673</v>
+        <v>216</v>
       </c>
       <c r="C187" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B188">
-        <v>20095</v>
+        <v>4065</v>
       </c>
       <c r="C188" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="B189">
-        <v>14940</v>
+        <v>42673</v>
       </c>
       <c r="C189" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="B190">
-        <v>14311</v>
+        <v>42673</v>
       </c>
       <c r="C190" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B191">
-        <v>14621</v>
+        <v>20095</v>
       </c>
       <c r="C191" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="B192">
-        <v>14327</v>
+        <v>14940</v>
       </c>
       <c r="C192" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="B193">
-        <v>34294</v>
+        <v>14311</v>
       </c>
       <c r="C193" t="s">
         <v>80</v>
@@ -3207,32 +3210,32 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="B194">
-        <v>2243</v>
+        <v>14621</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>125</v>
+        <v>226</v>
       </c>
       <c r="B195">
-        <v>22073</v>
+        <v>14327</v>
       </c>
       <c r="C195" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="B196">
-        <v>14589</v>
+        <v>34294</v>
       </c>
       <c r="C196" t="s">
         <v>80</v>
@@ -3240,32 +3243,32 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="B197">
-        <v>14622</v>
+        <v>2243</v>
       </c>
       <c r="C197" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B198">
-        <v>14623</v>
+        <v>22073</v>
       </c>
       <c r="C198" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B199">
-        <v>14590</v>
+        <v>14589</v>
       </c>
       <c r="C199" t="s">
         <v>80</v>
@@ -3273,32 +3276,32 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="B200">
-        <v>43153</v>
+        <v>14622</v>
       </c>
       <c r="C200" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B201">
-        <v>13940</v>
+        <v>14623</v>
       </c>
       <c r="C201" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="B202">
-        <v>38746</v>
+        <v>14590</v>
       </c>
       <c r="C202" t="s">
         <v>80</v>
@@ -3306,24 +3309,24 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B203">
-        <v>14625</v>
+        <v>43153</v>
       </c>
       <c r="C203" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B204">
-        <v>38747</v>
+        <v>13940</v>
       </c>
       <c r="C204" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3331,7 +3334,7 @@
         <v>179</v>
       </c>
       <c r="B205">
-        <v>38748</v>
+        <v>38746</v>
       </c>
       <c r="C205" t="s">
         <v>80</v>
@@ -3342,7 +3345,7 @@
         <v>179</v>
       </c>
       <c r="B206">
-        <v>38749</v>
+        <v>14625</v>
       </c>
       <c r="C206" t="s">
         <v>80</v>
@@ -3353,7 +3356,7 @@
         <v>179</v>
       </c>
       <c r="B207">
-        <v>38750</v>
+        <v>38747</v>
       </c>
       <c r="C207" t="s">
         <v>80</v>
@@ -3361,32 +3364,32 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="B208">
-        <v>12630</v>
+        <v>38748</v>
       </c>
       <c r="C208" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="B209">
-        <v>12956</v>
+        <v>38749</v>
       </c>
       <c r="C209" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B210">
-        <v>22475</v>
+        <v>38750</v>
       </c>
       <c r="C210" t="s">
         <v>80</v>
@@ -3394,32 +3397,32 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B211">
-        <v>31140</v>
+        <v>12630</v>
       </c>
       <c r="C211" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B212">
-        <v>239</v>
+        <v>12956</v>
       </c>
       <c r="C212" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B213">
-        <v>14312</v>
+        <v>22475</v>
       </c>
       <c r="C213" t="s">
         <v>80</v>
@@ -3427,54 +3430,54 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B214">
-        <v>14308</v>
+        <v>31140</v>
       </c>
       <c r="C214" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B215">
-        <v>10849</v>
+        <v>239</v>
       </c>
       <c r="C215" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="B216">
-        <v>41831</v>
+        <v>14312</v>
       </c>
       <c r="C216" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B217">
-        <v>37158</v>
+        <v>14308</v>
       </c>
       <c r="C217" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B218">
-        <v>13969</v>
+        <v>10849</v>
       </c>
       <c r="C218" t="s">
         <v>32</v>
@@ -3482,76 +3485,76 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="B219">
-        <v>36851</v>
+        <v>41831</v>
       </c>
       <c r="C219" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="B220">
-        <v>43403</v>
+        <v>37158</v>
       </c>
       <c r="C220" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B221">
-        <v>14453</v>
+        <v>13969</v>
       </c>
       <c r="C221" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="B222">
-        <v>14592</v>
+        <v>36851</v>
       </c>
       <c r="C222" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="B223">
-        <v>14309</v>
+        <v>43403</v>
       </c>
       <c r="C223" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B224">
-        <v>14626</v>
+        <v>14453</v>
       </c>
       <c r="C224" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="B225">
-        <v>22480</v>
+        <v>14592</v>
       </c>
       <c r="C225" t="s">
         <v>80</v>
@@ -3559,164 +3562,164 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B226">
-        <v>32453</v>
+        <v>14309</v>
       </c>
       <c r="C226" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B227">
-        <v>10851</v>
+        <v>14626</v>
       </c>
       <c r="C227" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="B228">
-        <v>102</v>
+        <v>22480</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="B229">
-        <v>25329</v>
+        <v>32453</v>
       </c>
       <c r="C229" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="B230">
-        <v>29</v>
+        <v>10851</v>
       </c>
       <c r="C230" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="B231">
-        <v>2046</v>
+        <v>102</v>
       </c>
       <c r="C231" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B232">
-        <v>14791</v>
+        <v>25329</v>
       </c>
       <c r="C232" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="B233">
-        <v>14794</v>
+        <v>29</v>
       </c>
       <c r="C233" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="B234">
-        <v>14594</v>
+        <v>2046</v>
       </c>
       <c r="C234" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B235">
-        <v>14629</v>
+        <v>14791</v>
       </c>
       <c r="C235" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B236">
-        <v>144</v>
+        <v>14794</v>
       </c>
       <c r="C236" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="B237">
-        <v>12240</v>
+        <v>14594</v>
       </c>
       <c r="C237" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="B238">
-        <v>43017</v>
+        <v>14629</v>
       </c>
       <c r="C238" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B239">
-        <v>11996</v>
+        <v>144</v>
       </c>
       <c r="C239" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="B240">
-        <v>13942</v>
+        <v>12240</v>
       </c>
       <c r="C240" t="s">
         <v>40</v>
@@ -3724,10 +3727,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="B241">
-        <v>14021</v>
+        <v>43017</v>
       </c>
       <c r="C241" t="s">
         <v>40</v>
@@ -3735,10 +3738,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B242">
-        <v>14138</v>
+        <v>11996</v>
       </c>
       <c r="C242" t="s">
         <v>40</v>
@@ -3746,32 +3749,32 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="B243">
-        <v>34057</v>
+        <v>13942</v>
       </c>
       <c r="C243" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B244">
-        <v>12576</v>
+        <v>14021</v>
       </c>
       <c r="C244" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B245">
-        <v>14099</v>
+        <v>14138</v>
       </c>
       <c r="C245" t="s">
         <v>40</v>
@@ -3779,32 +3782,32 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="B246">
-        <v>14098</v>
+        <v>34057</v>
       </c>
       <c r="C246" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="B247">
-        <v>12198</v>
+        <v>12576</v>
       </c>
       <c r="C247" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B248">
-        <v>17763</v>
+        <v>14099</v>
       </c>
       <c r="C248" t="s">
         <v>40</v>
@@ -3812,10 +3815,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B249">
-        <v>21517</v>
+        <v>14098</v>
       </c>
       <c r="C249" t="s">
         <v>40</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="B250">
-        <v>22117</v>
+        <v>12198</v>
       </c>
       <c r="C250" t="s">
         <v>40</v>
@@ -3834,43 +3837,43 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B251">
-        <v>22182</v>
+        <v>17763</v>
       </c>
       <c r="C251" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B252">
-        <v>2251</v>
+        <v>21517</v>
       </c>
       <c r="C252" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B253">
-        <v>22436</v>
+        <v>22117</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="B254">
-        <v>41834</v>
+        <v>22182</v>
       </c>
       <c r="C254" t="s">
         <v>51</v>
@@ -3878,109 +3881,109 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="B255">
-        <v>32505</v>
+        <v>2251</v>
       </c>
       <c r="C255" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="B256">
-        <v>20886</v>
+        <v>22436</v>
       </c>
       <c r="C256" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B257">
-        <v>41845</v>
+        <v>41834</v>
       </c>
       <c r="C257" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="B258">
-        <v>15595</v>
+        <v>32505</v>
       </c>
       <c r="C258" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="B259">
-        <v>30003</v>
+        <v>20886</v>
       </c>
       <c r="C259" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="B260">
-        <v>30004</v>
+        <v>41845</v>
       </c>
       <c r="C260" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B261">
-        <v>18532</v>
+        <v>15595</v>
       </c>
       <c r="C261" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="B262">
-        <v>18533</v>
+        <v>30003</v>
       </c>
       <c r="C262" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="B263">
-        <v>19227</v>
+        <v>30004</v>
       </c>
       <c r="C263" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B264">
-        <v>35814</v>
+        <v>18532</v>
       </c>
       <c r="C264" t="s">
         <v>4</v>
@@ -3988,10 +3991,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B265">
-        <v>42718</v>
+        <v>18533</v>
       </c>
       <c r="C265" t="s">
         <v>4</v>
@@ -3999,10 +4002,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B266">
-        <v>34578</v>
+        <v>19227</v>
       </c>
       <c r="C266" t="s">
         <v>4</v>
@@ -4010,43 +4013,43 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B267">
-        <v>35779</v>
+        <v>35814</v>
       </c>
       <c r="C267" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="B268">
-        <v>13956</v>
+        <v>42718</v>
       </c>
       <c r="C268" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B269">
-        <v>13924</v>
+        <v>34578</v>
       </c>
       <c r="C269" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B270">
-        <v>31856</v>
+        <v>35779</v>
       </c>
       <c r="C270" t="s">
         <v>40</v>
@@ -4054,21 +4057,21 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="B271">
-        <v>33692</v>
+        <v>13956</v>
       </c>
       <c r="C271" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="B272">
-        <v>27313</v>
+        <v>13924</v>
       </c>
       <c r="C272" t="s">
         <v>40</v>
@@ -4076,10 +4079,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="B273">
-        <v>27314</v>
+        <v>31856</v>
       </c>
       <c r="C273" t="s">
         <v>40</v>
@@ -4087,10 +4090,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B274">
-        <v>14595</v>
+        <v>33692</v>
       </c>
       <c r="C274" t="s">
         <v>80</v>
@@ -4098,24 +4101,24 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="B275">
-        <v>14631</v>
+        <v>27313</v>
       </c>
       <c r="C275" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="B276">
-        <v>14632</v>
+        <v>27314</v>
       </c>
       <c r="C276" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -4123,7 +4126,7 @@
         <v>103</v>
       </c>
       <c r="B277">
-        <v>14633</v>
+        <v>14595</v>
       </c>
       <c r="C277" t="s">
         <v>80</v>
@@ -4131,10 +4134,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="B278">
-        <v>14630</v>
+        <v>14631</v>
       </c>
       <c r="C278" t="s">
         <v>80</v>
@@ -4142,32 +4145,32 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="B279">
-        <v>150</v>
+        <v>14632</v>
       </c>
       <c r="C279" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B280">
-        <v>2253</v>
+        <v>14633</v>
       </c>
       <c r="C280" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="B281">
-        <v>14776</v>
+        <v>14630</v>
       </c>
       <c r="C281" t="s">
         <v>80</v>
@@ -4175,43 +4178,43 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="B282">
-        <v>14596</v>
+        <v>150</v>
       </c>
       <c r="C282" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B283">
-        <v>14634</v>
+        <v>2253</v>
       </c>
       <c r="C283" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="B284">
-        <v>33548</v>
+        <v>14776</v>
       </c>
       <c r="C284" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B285">
-        <v>14797</v>
+        <v>14596</v>
       </c>
       <c r="C285" t="s">
         <v>80</v>
@@ -4219,10 +4222,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B286">
-        <v>33927</v>
+        <v>14634</v>
       </c>
       <c r="C286" t="s">
         <v>80</v>
@@ -4230,54 +4233,54 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B287">
-        <v>22393</v>
+        <v>33548</v>
       </c>
       <c r="C287" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="B288">
-        <v>33462</v>
+        <v>14797</v>
       </c>
       <c r="C288" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="B289">
-        <v>12075</v>
+        <v>33927</v>
       </c>
       <c r="C289" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B290">
-        <v>14006</v>
+        <v>22393</v>
       </c>
       <c r="C290" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="B291">
-        <v>12077</v>
+        <v>33462</v>
       </c>
       <c r="C291" t="s">
         <v>32</v>
@@ -4285,10 +4288,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="B292">
-        <v>32811</v>
+        <v>12075</v>
       </c>
       <c r="C292" t="s">
         <v>32</v>
@@ -4296,21 +4299,21 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="B293">
-        <v>117</v>
+        <v>14006</v>
       </c>
       <c r="C293" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B294">
-        <v>2238</v>
+        <v>12077</v>
       </c>
       <c r="C294" t="s">
         <v>32</v>
@@ -4318,28 +4321,61 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="B295">
-        <v>21735</v>
+        <v>32811</v>
       </c>
       <c r="C295" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>241</v>
+      </c>
+      <c r="B296">
+        <v>117</v>
+      </c>
+      <c r="C296" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>31</v>
+      </c>
+      <c r="B297">
+        <v>2238</v>
+      </c>
+      <c r="C297" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>124</v>
       </c>
-      <c r="B296">
+      <c r="B298">
+        <v>21735</v>
+      </c>
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>124</v>
+      </c>
+      <c r="B299">
         <v>33963</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C299" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C296">
+  <autoFilter ref="A1:C299">
     <sortState ref="A2:C296">
       <sortCondition ref="A1:A296"/>
     </sortState>
